--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P9778\Прикладной статистический анализ\Lab1\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a309/Desktop/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4EEDC-C3C0-411B-A132-83FBF8D77133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8429842E-770D-E949-BCE8-DB9BA27339E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="10230" windowHeight="10920" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
+    <workbookView xWindow="780" yWindow="760" windowWidth="19200" windowHeight="19800" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -227,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,9 +239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,18 +535,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C94F6-D704-45DA-85E4-22DAEA91DBD0}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -558,391 +554,576 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <f>C2-705</f>
+        <v>45</v>
+      </c>
+      <c r="C2">
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B49" si="0">C3-705</f>
+        <v>44</v>
+      </c>
+      <c r="C3">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C4">
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
         <v>752</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C6">
         <v>753</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C7">
         <v>752</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>38</v>
+      </c>
+      <c r="C8">
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C9">
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C10">
         <v>753</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C11">
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C12">
         <v>755</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C13">
         <v>755</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C14">
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C15">
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C16">
         <v>753</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C17">
         <v>753</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C18">
         <v>751</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C19">
         <v>752</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C20">
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
         <v>757</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
         <v>755</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23">
         <v>755</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24">
         <v>757</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
         <v>758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C26">
         <v>755</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C27">
         <v>753</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C28">
         <v>753</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C29">
         <v>749</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C30">
         <v>745</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C31">
         <v>743</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C32">
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C33">
         <v>744</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C34">
         <v>749</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35">
         <v>754</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C36">
         <v>752</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C37">
         <v>751</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C38">
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C39">
         <v>746</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C40">
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C41">
         <v>757</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C42">
         <v>757</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C43">
         <v>752</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C44">
         <v>750</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C45">
         <v>747</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C46">
         <v>740</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C47">
         <v>738</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C48">
         <v>735</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C49">
         <v>738</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a309/Desktop/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8429842E-770D-E949-BCE8-DB9BA27339E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C42C29-E4A4-9C47-A180-874DEFAC7220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="760" windowWidth="19200" windowHeight="19800" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C94F6-D704-45DA-85E4-22DAEA91DBD0}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -554,572 +554,388 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>C2-705</f>
         <v>45</v>
       </c>
-      <c r="C2">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B49" si="0">C3-705</f>
         <v>44</v>
       </c>
-      <c r="C3">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>39</v>
       </c>
-      <c r="C5">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C7">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>38</v>
       </c>
-      <c r="C8">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C9">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C10">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C11">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C12">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C13">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C14">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C15">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C16">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C17">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C18">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C19">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C20">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>30</v>
       </c>
-      <c r="C21">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
-      <c r="C22">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>29</v>
       </c>
-      <c r="C23">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>44</v>
       </c>
-      <c r="C24">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>41</v>
       </c>
-      <c r="C25">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C26">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C27">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C28">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C29">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C30">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C31">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C32">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C33">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C34">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>45</v>
       </c>
-      <c r="C35">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C36">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C37">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C38">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C39">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C40">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C41">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C42">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C43">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C44">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C45">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C46">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C47">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C48">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
         <v>33</v>
-      </c>
-      <c r="C49">
-        <v>738</v>
       </c>
     </row>
   </sheetData>
